--- a/Python-code/desc.xlsx
+++ b/Python-code/desc.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\市调\code\Python-code\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978ADFE4-64DC-4565-9B85-F10BA04FCDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Q19" sheetId="1" r:id="rId1"/>
     <sheet name="Q21" sheetId="2" r:id="rId2"/>
     <sheet name="Q25" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -126,12 +120,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -139,15 +133,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -193,873 +180,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:radarChart>
-        <c:radarStyle val="marker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Q19'!$B$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.4275668073136432</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.443037974683544</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3980309423347399</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3867791842475392</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3867791842475392</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F3DF-4C7C-9544-CD79370591F1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1137517680"/>
-        <c:axId val="1137527248"/>
-      </c:radarChart>
-      <c:catAx>
-        <c:axId val="1137517680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1137527248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1137527248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1137517680"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412B584F-1670-75FA-4410-C878115B6023}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1101,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1133,27 +262,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1185,24 +296,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1378,16 +471,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1424,32 +515,32 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3.4275668073136432</v>
+        <v>3.427566807313643</v>
       </c>
       <c r="C3">
         <v>3.443037974683544</v>
       </c>
       <c r="D3">
-        <v>3.3980309423347399</v>
+        <v>3.39803094233474</v>
       </c>
       <c r="E3">
-        <v>3.3867791842475392</v>
+        <v>3.386779184247539</v>
       </c>
       <c r="F3">
-        <v>3.3867791842475392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.386779184247539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.98296740348046852</v>
+        <v>0.9829674034804685</v>
       </c>
       <c r="C4">
         <v>1.016375109565669</v>
@@ -1458,13 +549,13 @@
         <v>1.029396954134836</v>
       </c>
       <c r="E4">
-        <v>1.0144281149827761</v>
+        <v>1.014428114982776</v>
       </c>
       <c r="F4">
         <v>1.033683230097993</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1484,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1504,7 +595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1524,7 +615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1544,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1564,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1585,21 +676,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,7 +720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1666,42 +755,42 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3.3445850914205351</v>
+        <v>3.344585091420535</v>
       </c>
       <c r="C3">
-        <v>3.3797468354430382</v>
+        <v>3.379746835443038</v>
       </c>
       <c r="D3">
         <v>3.347398030942335</v>
       </c>
       <c r="E3">
-        <v>3.3656821378340371</v>
+        <v>3.365682137834037</v>
       </c>
       <c r="F3">
         <v>3.433192686357244</v>
       </c>
       <c r="G3">
-        <v>3.3656821378340371</v>
+        <v>3.365682137834037</v>
       </c>
       <c r="H3">
-        <v>3.4135021097046412</v>
+        <v>3.413502109704641</v>
       </c>
       <c r="I3">
-        <v>3.3867791842475392</v>
+        <v>3.386779184247539</v>
       </c>
       <c r="J3">
         <v>3.374120956399437</v>
       </c>
       <c r="K3">
-        <v>3.3684950773558371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.368495077355837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1709,34 +798,34 @@
         <v>1.006021765369485</v>
       </c>
       <c r="C4">
-        <v>1.0108345139985491</v>
+        <v>1.010834513998549</v>
       </c>
       <c r="D4">
-        <v>0.98093996769500214</v>
+        <v>0.9809399676950021</v>
       </c>
       <c r="E4">
         <v>1.01184717724019</v>
       </c>
       <c r="F4">
-        <v>1.0309141660435379</v>
+        <v>1.030914166043538</v>
       </c>
       <c r="G4">
-        <v>0.95602068762101799</v>
+        <v>0.956020687621018</v>
       </c>
       <c r="H4">
         <v>1.019824881230019</v>
       </c>
       <c r="I4">
-        <v>1.0645608261532959</v>
+        <v>1.064560826153296</v>
       </c>
       <c r="J4">
-        <v>1.0031526540466229</v>
+        <v>1.003152654046623</v>
       </c>
       <c r="K4">
-        <v>1.0383181754291111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.038318175429111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1771,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1806,7 +895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1841,7 +930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1876,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1911,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1947,20 +1036,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1989,7 +1077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +1109,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2029,13 +1117,13 @@
         <v>3.426160337552743</v>
       </c>
       <c r="C3">
-        <v>3.4233473980309421</v>
+        <v>3.423347398030942</v>
       </c>
       <c r="D3">
-        <v>3.4177215189873422</v>
+        <v>3.417721518987342</v>
       </c>
       <c r="E3">
-        <v>3.3769338959212378</v>
+        <v>3.376933895921238</v>
       </c>
       <c r="F3">
         <v>3.412095639943741</v>
@@ -2047,13 +1135,13 @@
         <v>3.39521800281294</v>
       </c>
       <c r="I3">
-        <v>3.3825597749648382</v>
+        <v>3.382559774964838</v>
       </c>
       <c r="J3">
-        <v>3.3825597749648382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.382559774964838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2064,10 +1152,10 @@
         <v>1.035682011936514</v>
       </c>
       <c r="D4">
-        <v>1.0406773991490621</v>
+        <v>1.040677399149062</v>
       </c>
       <c r="E4">
-        <v>1.0063052737985581</v>
+        <v>1.006305273798558</v>
       </c>
       <c r="F4">
         <v>1.022463179884922</v>
@@ -2079,13 +1167,13 @@
         <v>1.041358633958787</v>
       </c>
       <c r="I4">
-        <v>1.0167219773214331</v>
+        <v>1.016721977321433</v>
       </c>
       <c r="J4">
-        <v>1.0139476201222151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.013947620122215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2117,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2149,7 +1237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2181,7 +1269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2213,7 +1301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2245,7 +1333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2278,7 +1366,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>